--- a/GPT_MASB_Room103.xlsx
+++ b/GPT_MASB_Room103.xlsx
@@ -456,96 +456,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24001-CS-001</t>
+          <t>22001-ME-019</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-019</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24001-CS-002</t>
+          <t>22001-ME-020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-020</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-020</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-019</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-019</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-020</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-020</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-021</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24001-CS-003</t>
+          <t>22001-ME-021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24001-CS-004</t>
+          <t>22001-ME-022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-022</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-022</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -584,32 +584,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24001-CS-005</t>
+          <t>22001-ME-023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24001-CS-006</t>
+          <t>22001-ME-024</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-024</t>
         </is>
       </c>
     </row>
